--- a/uploads/template.xlsx
+++ b/uploads/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28220" yWindow="-1340" windowWidth="25960" windowHeight="16180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-34580" yWindow="-1340" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attendee" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Being Well in the 33rd century</t>
-  </si>
-  <si>
-    <t>myslide.pdf</t>
   </si>
   <si>
     <t>Organization</t>
@@ -140,9 +137,6 @@
     <t>Track</t>
   </si>
   <si>
-    <t>9d26dcbc-cfa8-43b5-98b7-390d91a93e6b/tfss-f76aefbd-ec54-42b1-b95f-8dc4b44bdf6d-profileImage.jpeg</t>
-  </si>
-  <si>
     <t>Morning Session I</t>
   </si>
   <si>
@@ -192,6 +186,26 @@
   </si>
   <si>
     <t>Talk</t>
+  </si>
+  <si>
+    <t>2eb01cc0-8ebb-451f-855a-52008979a5de/tfss-4f405416-a80b-41a9-bbec-f468a6141666-cat1.jpeg</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Medical Officer, Pager 
+New York City and Los Angeles 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard J. </t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>Chopra</t>
   </si>
 </sst>
 </file>
@@ -260,12 +274,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -299,7 +316,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -312,6 +329,9 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -674,7 +694,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -691,16 +711,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -712,35 +732,35 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -935,7 +955,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -953,16 +973,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -974,49 +994,57 @@
         <v>16</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="H3" s="2"/>
@@ -1221,7 +1249,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1238,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -1287,10 +1315,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="11">
         <v>42146.34375</v>
@@ -1449,7 +1477,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1465,7 +1493,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
@@ -1477,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -1501,13 +1529,13 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -1732,7 +1760,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1743,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1772,7 +1800,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -1780,30 +1808,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="B5" s="3"/>
